--- a/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5654</v>
+        <v>5615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13367</v>
+        <v>13956</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.606727687326874</v>
+        <v>0.6067276873268742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3395715659135101</v>
+        <v>0.3372469492620971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8027449939627957</v>
+        <v>0.838151119093236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2626</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>689</v>
+        <v>614</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5642</v>
+        <v>5451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1971992243705971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05172847471255239</v>
+        <v>0.04608439764632997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.423568467346552</v>
+        <v>0.4092527514640896</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>12729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7359</v>
+        <v>7852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17947</v>
+        <v>18105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4247329586996108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2455530204514212</v>
+        <v>0.2619792212606772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5988285163355064</v>
+        <v>0.6041057133309725</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2382</v>
+        <v>1964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10480</v>
+        <v>10461</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3361647919450212</v>
+        <v>0.3361647919450213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1430821348352554</v>
+        <v>0.1179285430423083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6294140420176348</v>
+        <v>0.6282603134417335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>1880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>622</v>
+        <v>398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4501</v>
+        <v>4417</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1411801944329086</v>
+        <v>0.1411801944329085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04666894747000708</v>
+        <v>0.02985947551479801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3379361550170516</v>
+        <v>0.3316040928221132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>7478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3618</v>
+        <v>3610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13463</v>
+        <v>13873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.249513503644941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1207043364694831</v>
+        <v>0.1204675083228757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4492268360849818</v>
+        <v>0.4628809274815738</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3599</v>
+        <v>3038</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05710752072810465</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2161263149119322</v>
+        <v>0.1824468305172425</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>8812</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5570</v>
+        <v>5502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11230</v>
+        <v>11287</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.6616205811964945</v>
+        <v>0.6616205811964943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4181661488370719</v>
+        <v>0.4130665171603814</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8431501502560091</v>
+        <v>0.8474674306800103</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -925,19 +925,19 @@
         <v>9763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5190</v>
+        <v>5433</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15054</v>
+        <v>14714</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3257535376554482</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1731624070209295</v>
+        <v>0.1812822900336017</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.502304080294484</v>
+        <v>0.4909581403334325</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>10711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6147</v>
+        <v>6170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14046</v>
+        <v>13839</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.684322439390592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3927369063398525</v>
+        <v>0.3941991126481542</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8973809306507055</v>
+        <v>0.8841790189362743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1050,19 +1050,19 @@
         <v>5520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2141</v>
+        <v>2063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9582</v>
+        <v>9106</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3572426537416873</v>
+        <v>0.3572426537416874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1385652759059775</v>
+        <v>0.1335295854905785</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6200871402018359</v>
+        <v>0.5892616818138483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -1071,19 +1071,19 @@
         <v>16232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9644</v>
+        <v>9541</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21289</v>
+        <v>21879</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5218299118463392</v>
+        <v>0.5218299118463393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3100585770641192</v>
+        <v>0.3067349575268261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.684438992215808</v>
+        <v>0.7034050991407329</v>
       </c>
     </row>
     <row r="9">
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7947</v>
+        <v>7700</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.165426094433152</v>
+        <v>0.1654260944331519</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5077611673241559</v>
+        <v>0.4919417838338827</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1121,19 +1121,19 @@
         <v>1659</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4618</v>
+        <v>5023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1073414973467492</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0215491602822822</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2988622558471913</v>
+        <v>0.3250245067958497</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1142,19 +1142,19 @@
         <v>4248</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1414</v>
+        <v>1316</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9400</v>
+        <v>9942</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1365697926802505</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04546179626316234</v>
+        <v>0.04231392383205355</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3021944562352766</v>
+        <v>0.3196380013471056</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>2352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6878</v>
+        <v>7049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.150251466176256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03014097988125854</v>
+        <v>0.03435706337754735</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4394500513784684</v>
+        <v>0.4503710883125678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1192,19 +1192,19 @@
         <v>8274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4176</v>
+        <v>4296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12338</v>
+        <v>12454</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5354158489115635</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.27021671445839</v>
+        <v>0.2779819928970152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7984274366159444</v>
+        <v>0.8059115020921963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1213,19 +1213,19 @@
         <v>10625</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5696</v>
+        <v>5511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18047</v>
+        <v>18895</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3416002954734103</v>
+        <v>0.3416002954734102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1831337744827586</v>
+        <v>0.1771736903193506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5802021709939055</v>
+        <v>0.6074723793676809</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>10029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5609</v>
+        <v>5698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13477</v>
+        <v>13512</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6490546395845439</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3629915707179066</v>
+        <v>0.3687633772267635</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8722427836755964</v>
+        <v>0.8744822109692445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1338,19 +1338,19 @@
         <v>4786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2072</v>
+        <v>2062</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7118</v>
+        <v>7127</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5211216164914716</v>
+        <v>0.5211216164914717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2256358955927909</v>
+        <v>0.2244754571719811</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7750445105578008</v>
+        <v>0.7760343352734325</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1359,19 +1359,19 @@
         <v>14815</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9959</v>
+        <v>9873</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18611</v>
+        <v>18971</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6013621370614665</v>
+        <v>0.6013621370614666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4042776628756418</v>
+        <v>0.4007803633702018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7554627763680083</v>
+        <v>0.7700998629596469</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>2906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7553</v>
+        <v>7279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1880517800747638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05527908130645535</v>
+        <v>0.05485221757591864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.488816087986558</v>
+        <v>0.4710975369066603</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2976</v>
+        <v>2987</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0786689149612006</v>
+        <v>0.07866891496120063</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3240818182491554</v>
+        <v>0.3252877609067719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1430,19 +1430,19 @@
         <v>3628</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7924</v>
+        <v>8225</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1472746418169206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03993378067288418</v>
+        <v>0.03876854081063914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3216670067131362</v>
+        <v>0.3338600305032445</v>
       </c>
     </row>
     <row r="14">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7358</v>
+        <v>7121</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1628935803406922</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4762337619466153</v>
+        <v>0.4608524924595766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1480,19 +1480,19 @@
         <v>3676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1446</v>
+        <v>1526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6383</v>
+        <v>6535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4002094685473278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1574327404963109</v>
+        <v>0.1661051170254772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6950208311102897</v>
+        <v>0.7115637379023504</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1501,19 +1501,19 @@
         <v>6192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2833</v>
+        <v>2723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11069</v>
+        <v>11084</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2513632211216131</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1150185471793064</v>
+        <v>0.110522139837697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4493086622995077</v>
+        <v>0.4499439949250379</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>14200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9545</v>
+        <v>9966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17580</v>
+        <v>17300</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6944283116591555</v>
+        <v>0.6944283116591554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4667728370188256</v>
+        <v>0.4873789065724605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8597610117028869</v>
+        <v>0.8460272866562332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1626,19 +1626,19 @@
         <v>7858</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4679</v>
+        <v>5025</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11409</v>
+        <v>11264</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4065416578405366</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2420581626146546</v>
+        <v>0.259976275589144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5902443805444778</v>
+        <v>0.5827308897156008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1647,19 +1647,19 @@
         <v>22058</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15993</v>
+        <v>16863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26888</v>
+        <v>27822</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5545305229445645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.402060434786694</v>
+        <v>0.4239388486655652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6759602356612245</v>
+        <v>0.6994573587745341</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>3338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>981</v>
+        <v>901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7730</v>
+        <v>7510</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1632367225071483</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04799531124832563</v>
+        <v>0.04405470162059817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3780471398644145</v>
+        <v>0.3672932577158464</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1697,19 +1697,19 @@
         <v>2738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6185</v>
+        <v>6026</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1416653210609919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03679374619385308</v>
+        <v>0.03768200514801569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3199748972048878</v>
+        <v>0.3117274163031422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1718,19 +1718,19 @@
         <v>6076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2814</v>
+        <v>2624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11011</v>
+        <v>10298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1527541547265198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07074038755371879</v>
+        <v>0.06595624608285162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2768282515883078</v>
+        <v>0.2588896875841407</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>2910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6718</v>
+        <v>6511</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1423349658336963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03464814334786477</v>
+        <v>0.03255949036237517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3285402469160758</v>
+        <v>0.3184004585652604</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1768,19 +1768,19 @@
         <v>8733</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5685</v>
+        <v>5285</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12304</v>
+        <v>12126</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4517930210984714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.294100982410061</v>
+        <v>0.2734109023025612</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6365227187906699</v>
+        <v>0.6273223419267844</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1789,19 +1789,19 @@
         <v>11643</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7491</v>
+        <v>7174</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16828</v>
+        <v>16271</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2927153223289157</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1883160979675462</v>
+        <v>0.1803646536148243</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4230663288728362</v>
+        <v>0.4090568680781396</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>45042</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36721</v>
+        <v>35534</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52092</v>
+        <v>52051</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6604178593495731</v>
+        <v>0.6604178593495733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5384108253908525</v>
+        <v>0.521004662573467</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7637942367961023</v>
+        <v>0.7631848579243622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1914,19 +1914,19 @@
         <v>20791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14160</v>
+        <v>14789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26846</v>
+        <v>27606</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3629404491677437</v>
+        <v>0.3629404491677438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2471882249407013</v>
+        <v>0.2581643089871068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4686449767678267</v>
+        <v>0.4819005010482789</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>84</v>
@@ -1935,19 +1935,19 @@
         <v>65833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54756</v>
+        <v>54434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76671</v>
+        <v>75476</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5246193195939544</v>
+        <v>0.5246193195939545</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4363514593602716</v>
+        <v>0.4337816565351309</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.610989819067289</v>
+        <v>0.6014654412638187</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>14430</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8984</v>
+        <v>8534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23476</v>
+        <v>23433</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2115807135263945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1317291363678173</v>
+        <v>0.1251276620505174</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3442093984995179</v>
+        <v>0.3435808296974716</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1985,19 +1985,19 @@
         <v>7000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3661</v>
+        <v>3639</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11535</v>
+        <v>11646</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1221941080779642</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06390878311198107</v>
+        <v>0.06352683139735023</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2013579249585985</v>
+        <v>0.2032906607537256</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -2006,19 +2006,19 @@
         <v>21430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14336</v>
+        <v>13519</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31034</v>
+        <v>31182</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1707756974877349</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1142450273896167</v>
+        <v>0.1077286613830106</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2473081249189825</v>
+        <v>0.2484912455091787</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>8730</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2056,19 +2056,19 @@
         <v>29494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -2077,19 +2077,19 @@
         <v>38224</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="23">
